--- a/User_tests/Conversation_length_results.xlsx
+++ b/User_tests/Conversation_length_results.xlsx
@@ -269,7 +269,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -570,11 +570,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="5669857"/>
-        <c:axId val="77211037"/>
+        <c:axId val="51000985"/>
+        <c:axId val="74012266"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5669857"/>
+        <c:axId val="51000985"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,14 +609,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77211037"/>
+        <c:crossAx val="74012266"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77211037"/>
+        <c:axId val="74012266"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,7 +669,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5669857"/>
+        <c:crossAx val="51000985"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -706,7 +706,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1007,11 +1007,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="57167090"/>
-        <c:axId val="54401491"/>
+        <c:axId val="51785073"/>
+        <c:axId val="33785387"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57167090"/>
+        <c:axId val="51785073"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,14 +1046,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54401491"/>
+        <c:crossAx val="33785387"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54401491"/>
+        <c:axId val="33785387"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1097,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57167090"/>
+        <c:crossAx val="51785073"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1138,16 +1138,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>749880</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>232920</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1155,8 +1155,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13246560" y="17238960"/>
-        <a:ext cx="5505120" cy="3239280"/>
+        <a:off x="2776680" y="11042640"/>
+        <a:ext cx="4056840" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1168,16 +1168,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>691200</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>258120</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>759960</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>326880</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1185,8 +1185,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13968720" y="9885960"/>
-        <a:ext cx="5536440" cy="3238920"/>
+        <a:off x="2658240" y="5831280"/>
+        <a:ext cx="4269240" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1206,11 +1206,14 @@
   </sheetPr>
   <dimension ref="A1:BA86"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N75" activeCellId="0" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
